--- a/Projects/Federal Reserve Data/Disaggregated C&A  Diff-in-DiffDAGOLS 2008-10-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/Disaggregated C&A  Diff-in-DiffDAGOLS 2008-10-31 to 2020-02-29.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
-    <t>C Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>U Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>$\pi$ Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>FFR Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>A Diff-in-Diff</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>$\pi$</t>
+  </si>
+  <si>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Constant</t>
@@ -37,79 +37,79 @@
     <t>r2_adj</t>
   </si>
   <si>
-    <t>0.085**</t>
-  </si>
-  <si>
-    <t>-1.24**</t>
-  </si>
-  <si>
-    <t>1.044*</t>
-  </si>
-  <si>
-    <t>4.565***</t>
-  </si>
-  <si>
-    <t>-0.275</t>
-  </si>
-  <si>
-    <t>0.656**</t>
-  </si>
-  <si>
-    <t>-2.924*</t>
-  </si>
-  <si>
-    <t>-2.625</t>
-  </si>
-  <si>
-    <t>-7.754***</t>
-  </si>
-  <si>
-    <t>-1.257</t>
-  </si>
-  <si>
-    <t>-0.057**</t>
-  </si>
-  <si>
-    <t>-0.018*</t>
-  </si>
-  <si>
-    <t>-0.017</t>
-  </si>
-  <si>
-    <t>-0.558***</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.034*</t>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t>-0.012</t>
-  </si>
-  <si>
-    <t>-0.966***</t>
-  </si>
-  <si>
-    <t>0.153**</t>
-  </si>
-  <si>
-    <t>0.067***</t>
-  </si>
-  <si>
-    <t>-0.015***</t>
-  </si>
-  <si>
-    <t>-0.176***</t>
-  </si>
-  <si>
-    <t>-0.435***</t>
-  </si>
-  <si>
-    <t>0.043</t>
+    <t>0.084**</t>
+  </si>
+  <si>
+    <t>-1.158**</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>4.359***</t>
+  </si>
+  <si>
+    <t>-0.182</t>
+  </si>
+  <si>
+    <t>0.839**</t>
+  </si>
+  <si>
+    <t>-3.396**</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>-4.271*</t>
+  </si>
+  <si>
+    <t>-0.214</t>
+  </si>
+  <si>
+    <t>-0.054**</t>
+  </si>
+  <si>
+    <t>-0.016**</t>
+  </si>
+  <si>
+    <t>-0.077</t>
+  </si>
+  <si>
+    <t>-0.59***</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-1.054***</t>
+  </si>
+  <si>
+    <t>0.204**</t>
+  </si>
+  <si>
+    <t>0.079***</t>
+  </si>
+  <si>
+    <t>-0.008*</t>
+  </si>
+  <si>
+    <t>-0.231***</t>
+  </si>
+  <si>
+    <t>-0.292***</t>
+  </si>
+  <si>
+    <t>0.061</t>
   </si>
 </sst>
 </file>
@@ -600,19 +600,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="C8">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="D8">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="F8">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
